--- a/Sagacity_0.3.2.xlsx
+++ b/Sagacity_0.3.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F64EB2-6E9D-47E1-B19C-36AA1F12A45D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46A405-91A0-42AA-8BC2-582F4E98C549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="623">
   <si>
     <t>Probability of severe illness / hospitalization from Covid-19</t>
   </si>
@@ -2494,6 +2494,9 @@
   </si>
   <si>
     <t>Corrected a cell formula error on the Decision Tree worksheet (cell G23)</t>
+  </si>
+  <si>
+    <t>Note: This spreadsheet is under development and may contain cell formula errors in it</t>
   </si>
 </sst>
 </file>
@@ -2750,7 +2753,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2832,6 +2835,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,7 +3149,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3336,6 +3345,10 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4880,9 +4893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7A13-E933-4564-86CB-A1CE9990B42E}">
   <dimension ref="A3:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -4975,6 +4986,19 @@
       <c r="N23" s="80" t="s">
         <v>597</v>
       </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.75">
+      <c r="A24" s="105" t="s">
+        <v>622</v>
+      </c>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="31" t="str">
@@ -5062,7 +5086,8 @@
     <hyperlink ref="A40" r:id="rId6" display="See the GNU General Public License for more details (http://www.gnu.org/licenses/)." xr:uid="{42006A7A-DC9F-4E36-B207-4C4C12D3C390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Sagacity_0.3.2.xlsx
+++ b/Sagacity_0.3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46A405-91A0-42AA-8BC2-582F4E98C549}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E478223-54CD-4B32-A205-EA6D776D0639}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Here" sheetId="5" r:id="rId1"/>
@@ -2493,10 +2493,10 @@
     <t>0.3.2</t>
   </si>
   <si>
-    <t>Corrected a cell formula error on the Decision Tree worksheet (cell G23)</t>
-  </si>
-  <si>
     <t>Note: This spreadsheet is under development and may contain cell formula errors in it</t>
+  </si>
+  <si>
+    <t>Corrected a cell formula error on the Decision Tree worksheet (cell G22)</t>
   </si>
 </sst>
 </file>
@@ -3309,6 +3309,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3345,10 +3349,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4893,7 +4893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7A13-E933-4564-86CB-A1CE9990B42E}">
   <dimension ref="A3:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -4988,17 +4988,17 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="A24" s="105" t="s">
-        <v>622</v>
-      </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
+      <c r="A24" s="93" t="s">
+        <v>621</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A25" s="31" t="str">
@@ -5729,12 +5729,12 @@
       <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="95" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="97"/>
       <c r="G3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5748,12 +5748,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100"/>
       <c r="G4" s="9">
         <f>Inputs!A13</f>
         <v>1000</v>
@@ -5766,24 +5766,24 @@
       <c r="M4" s="56"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="98" t="s">
         <v>578</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
       <c r="K5" s="49"/>
       <c r="L5" s="50"/>
       <c r="M5" s="51"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="99" t="str">
+      <c r="A6" s="101" t="str">
         <f>IF(C18&lt;C44,"You should get vaccinated","You should NOT get vaccinated")</f>
         <v>You should NOT get vaccinated</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
       <c r="I6" s="4">
         <f>Inputs!A7+Inputs!A8</f>
         <v>0.6</v>
@@ -5796,10 +5796,10 @@
       <c r="M6" s="55"/>
     </row>
     <row r="7" spans="1:13" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
       <c r="I7" s="14" t="s">
         <v>12</v>
       </c>
@@ -6748,8 +6748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7162-4E7F-442F-9BC8-BFA20ED5CB60}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6784,7 +6784,7 @@
         <v>620</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">

--- a/Sagacity_0.3.2.xlsx
+++ b/Sagacity_0.3.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Documents\GitHub\sagacity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E478223-54CD-4B32-A205-EA6D776D0639}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AE539F-4B2D-4556-AC85-A8F7A01C060B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" activeTab="4" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D0780601-15C0-441A-91EF-C09DCE388F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Start Here" sheetId="5" r:id="rId1"/>
@@ -4893,7 +4893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FED7A13-E933-4564-86CB-A1CE9990B42E}">
   <dimension ref="A3:N40"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
@@ -6748,7 +6748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F7162-4E7F-442F-9BC8-BFA20ED5CB60}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
